--- a/MIL/Car_wiper/wiper_mechanism.xlsx
+++ b/MIL/Car_wiper/wiper_mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kundan Patil\DS0522\Lectures_syllabus\8. matlab\MIL\Car_wiper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565454C-2667-46E4-8DA5-0FE048DBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A747B-D212-43FB-9E49-A72F68468F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{2062F9DC-307F-44AA-9E5E-8EEBE6932403}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2062F9DC-307F-44AA-9E5E-8EEBE6932403}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6570442E-0F8F-44EB-954F-03E8DF536067}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +420,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,11 +453,8 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,11 +470,8 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,11 +487,8 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -513,11 +504,8 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -533,11 +521,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -553,11 +538,8 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,11 +555,8 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,11 +572,8 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -613,11 +589,8 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -631,9 +604,6 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
